--- a/input_spreadsheets/Bangladesh/2016Aug02/validation/Input_Bangladesh_2016_1604_LiST.xlsx
+++ b/input_spreadsheets/Bangladesh/2016Aug02/validation/Input_Bangladesh_2016_1604_LiST.xlsx
@@ -1,49 +1,123 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/discworld/Documents/Research/Health/Optima/Nutrition/development/Nutrition/input_spreadsheets/Bangladesh/2016Aug02/validation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="-4920" yWindow="-21040" windowWidth="32160" windowHeight="19240" tabRatio="500" firstSheet="14" activeTab="21"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="demographics" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="projected births" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="total mortality" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="mortality" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="distributions" sheetId="5" r:id="rId7"/>
-    <sheet state="visible" name="birth outcome distribution" sheetId="6" r:id="rId8"/>
-    <sheet state="visible" name="Incidence of conditions" sheetId="7" r:id="rId9"/>
-    <sheet state="visible" name="RRStunting" sheetId="8" r:id="rId10"/>
-    <sheet state="visible" name="RRWasting" sheetId="9" r:id="rId11"/>
-    <sheet state="visible" name="RRBreastfeeding" sheetId="10" r:id="rId12"/>
-    <sheet state="visible" name="RR Death by Birth Outcome" sheetId="11" r:id="rId13"/>
-    <sheet state="visible" name="OR stunting progression" sheetId="12" r:id="rId14"/>
-    <sheet state="visible" name="RR diarrhoea" sheetId="13" r:id="rId15"/>
-    <sheet state="visible" name="OR stunting by condition" sheetId="14" r:id="rId16"/>
-    <sheet state="visible" name="OR stunting by birth outcome" sheetId="15" r:id="rId17"/>
-    <sheet state="visible" name="OR stunting by intervention" sheetId="16" r:id="rId18"/>
-    <sheet state="visible" name="OR stunting for complements" sheetId="17" r:id="rId19"/>
-    <sheet state="visible" name="OR appropriateBF by interv" sheetId="18" r:id="rId20"/>
-    <sheet state="visible" name="Appropriate breastfeeding" sheetId="19" r:id="rId21"/>
-    <sheet state="visible" name="Interventions cost and coverage" sheetId="20" r:id="rId22"/>
-    <sheet state="visible" name="Interventions target population" sheetId="21" r:id="rId23"/>
-    <sheet state="visible" name="Interventions maternal" sheetId="22" r:id="rId24"/>
-    <sheet state="visible" name="Interventions affected fraction" sheetId="23" r:id="rId25"/>
-    <sheet state="visible" name="Interventions mortality eff" sheetId="24" r:id="rId26"/>
-    <sheet state="visible" name="Interventions incidence eff" sheetId="25" r:id="rId27"/>
+    <sheet name="demographics" sheetId="1" r:id="rId1"/>
+    <sheet name="projected births" sheetId="2" r:id="rId2"/>
+    <sheet name="total mortality" sheetId="3" r:id="rId3"/>
+    <sheet name="mortality" sheetId="4" r:id="rId4"/>
+    <sheet name="distributions" sheetId="5" r:id="rId5"/>
+    <sheet name="birth outcome distribution" sheetId="6" r:id="rId6"/>
+    <sheet name="Incidence of conditions" sheetId="7" r:id="rId7"/>
+    <sheet name="RRStunting" sheetId="8" r:id="rId8"/>
+    <sheet name="RRWasting" sheetId="9" r:id="rId9"/>
+    <sheet name="RRBreastfeeding" sheetId="10" r:id="rId10"/>
+    <sheet name="RR Death by Birth Outcome" sheetId="11" r:id="rId11"/>
+    <sheet name="OR stunting progression" sheetId="12" r:id="rId12"/>
+    <sheet name="RR diarrhoea" sheetId="13" r:id="rId13"/>
+    <sheet name="OR stunting by condition" sheetId="14" r:id="rId14"/>
+    <sheet name="OR stunting by birth outcome" sheetId="15" r:id="rId15"/>
+    <sheet name="OR stunting by intervention" sheetId="16" r:id="rId16"/>
+    <sheet name="OR stunting for complements" sheetId="17" r:id="rId17"/>
+    <sheet name="OR appropriateBF by interv" sheetId="18" r:id="rId18"/>
+    <sheet name="Appropriate breastfeeding" sheetId="19" r:id="rId19"/>
+    <sheet name="Interventions cost and coverage" sheetId="20" r:id="rId20"/>
+    <sheet name="Interventions target population" sheetId="21" r:id="rId21"/>
+    <sheet name="Interventions maternal" sheetId="22" r:id="rId22"/>
+    <sheet name="Interventions affected fraction" sheetId="23" r:id="rId23"/>
+    <sheet name="Interventions mortality eff" sheetId="24" r:id="rId24"/>
+    <sheet name="Interventions incidence eff" sheetId="25" r:id="rId25"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author/>
+    <author>Janka Petravic</author>
+    <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A2">
+    <comment ref="A5" authorId="0">
       <text>
-        <t xml:space="preserve">Nick:
-Need to check units for the neonatal, infant and U5 mortality rates. LiST has these as "deaths per 1000 live births"</t>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction food insecure in the target population (here the lowest 2 wealth quintiles)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">Madhura Killedar:
+ </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>poor = two lowest wealth quintiles</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -56,10 +130,40 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="E12">
+    <comment ref="A2" authorId="0">
       <text>
-        <t xml:space="preserve">Nick:
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Nick:
+Need to check units for the neonatal, infant and U5 mortality rates. LiST has these as "deaths per 1000 live births"</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="E12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Nick:
 Any breastfeeding. Other categories don't matter for this age upwards as relative risks are the same.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -67,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="80">
   <si>
     <t>indicators</t>
   </si>
@@ -84,9 +188,6 @@
     <t>number of pregnant women</t>
   </si>
   <si>
-    <t>fraction food insecure</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
@@ -301,40 +402,79 @@
   </si>
   <si>
     <t>Interventions</t>
+  </si>
+  <si>
+    <t>fraction food insecure (poor)</t>
+  </si>
+  <si>
+    <t>fraction poor</t>
+  </si>
+  <si>
+    <t>fraction food insecure (not poor)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -342,7 +482,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -351,186 +491,460 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="24">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="Rectangle 1" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
-<file path=xl/drawings/worksheetdrawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2049" name="Rectangle 1" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
-<file path=xl/drawings/worksheetdrawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing13.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing14.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing15.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing16.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing17.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing18.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing19.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing20.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing21.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing22.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing23.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing24.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing25.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.14"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,480 +952,498 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>1.479E7</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>14790000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3">
-        <v>3030000.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>3030000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3">
-        <v>3583822.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>3583822</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="B5" s="2">
-        <v>0.4365</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2"/>
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="21">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="21">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="22"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="24.29"/>
+    <col min="1" max="2" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
       <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C2">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="C3" s="2">
         <v>1.26</v>
       </c>
       <c r="D3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2">
         <v>1.83</v>
       </c>
       <c r="D4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2">
         <v>10.88</v>
       </c>
       <c r="D5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C6">
-        <v>1.0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="C7" s="2">
         <v>1.26</v>
       </c>
       <c r="D7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2">
         <v>1.83</v>
       </c>
       <c r="D8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2">
         <v>10.88</v>
       </c>
       <c r="D9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C10">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="C11" s="2">
         <v>1.26</v>
       </c>
       <c r="D11" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2">
         <v>1.83</v>
       </c>
       <c r="D12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2">
         <v>10.88</v>
       </c>
       <c r="D13" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C14">
-        <v>1.0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="C15" s="2">
         <v>1.26</v>
       </c>
       <c r="D15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2">
         <v>1.83</v>
       </c>
       <c r="D16" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2">
         <v>10.88</v>
       </c>
       <c r="D17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D18">
-        <v>1.0</v>
-      </c>
-      <c r="E18">
-        <v>1.0</v>
-      </c>
-      <c r="F18">
-        <v>1.0</v>
-      </c>
-      <c r="G18">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C19" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="2">
         <v>1.26</v>
       </c>
       <c r="E19">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2">
         <v>1.83</v>
       </c>
       <c r="E20">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="2">
         <v>10.88</v>
@@ -1023,78 +1455,78 @@
         <v>2.1</v>
       </c>
       <c r="G21">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D22">
-        <v>1.0</v>
-      </c>
-      <c r="E22">
-        <v>1.0</v>
-      </c>
-      <c r="F22">
-        <v>1.0</v>
-      </c>
-      <c r="G22">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C23" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>1.66</v>
       </c>
       <c r="E23">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>2.5</v>
       </c>
       <c r="E24">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>14.97</v>
@@ -1106,153 +1538,154 @@
         <v>1.92</v>
       </c>
       <c r="G25">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D26">
-        <v>1.0</v>
-      </c>
-      <c r="E26">
-        <v>1.0</v>
-      </c>
-      <c r="F26">
-        <v>1.0</v>
-      </c>
-      <c r="G26">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D27">
-        <v>1.0</v>
-      </c>
-      <c r="E27">
-        <v>1.0</v>
-      </c>
-      <c r="F27">
-        <v>1.0</v>
-      </c>
-      <c r="G27">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D28">
-        <v>1.0</v>
-      </c>
-      <c r="E28">
-        <v>1.0</v>
-      </c>
-      <c r="F28">
-        <v>1.0</v>
-      </c>
-      <c r="G28">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C29" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="33.86"/>
-    <col customWidth="1" min="2" max="2" width="15.57"/>
+    <col min="1" max="1" width="33.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2.07</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="D3" s="10">
         <v>8.02</v>
@@ -1263,15 +1696,15 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>2.07</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="D4" s="10">
         <v>8.02</v>
@@ -1282,15 +1715,15 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>2.07</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="D5" s="10">
         <v>8.02</v>
@@ -1301,15 +1734,15 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="10">
         <v>999.99</v>
@@ -1320,194 +1753,195 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17">
+    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18">
+    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19">
+    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20">
+    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21">
+    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22">
+    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23">
+    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24">
+    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25">
+    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26">
+    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27">
+    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28">
+    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29">
+    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>11.2</v>
       </c>
@@ -1522,63 +1956,64 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.86"/>
+    <col min="1" max="1" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B2">
-        <v>1.0</v>
-      </c>
-      <c r="C2">
-        <v>1.0</v>
-      </c>
-      <c r="D2">
-        <v>1.0</v>
-      </c>
-      <c r="E2">
-        <v>1.0</v>
-      </c>
-      <c r="F2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="B3">
         <v>1.26</v>
@@ -1587,18 +2022,18 @@
         <v>1.26</v>
       </c>
       <c r="D3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4">
         <v>1.68</v>
@@ -1607,18 +2042,18 @@
         <v>1.68</v>
       </c>
       <c r="D4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5">
         <v>2.65</v>
@@ -1627,50 +2062,51 @@
         <v>2.65</v>
       </c>
       <c r="D5">
-        <v>2.07</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="E5">
-        <v>2.07</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="F5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>1.04</v>
@@ -1689,34 +2125,35 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="13">
         <v>2.82</v>
@@ -1725,56 +2162,57 @@
         <v>1.94</v>
       </c>
       <c r="D2" s="13">
-        <v>4.98</v>
+        <v>4.9800000000000004</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="43.43"/>
+    <col min="1" max="1" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="B2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2">
         <v>0.9</v>
@@ -1783,7 +2221,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1791,7 +2229,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1799,7 +2237,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1808,69 +2246,70 @@
       <c r="F5" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="70.86"/>
+    <col min="1" max="1" width="70.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="B3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
         <v>1.43</v>
@@ -1879,18 +2318,18 @@
         <v>1.43</v>
       </c>
       <c r="F3" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2">
         <v>1.6</v>
@@ -1899,18 +2338,18 @@
         <v>1.6</v>
       </c>
       <c r="F4" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2">
         <v>2.39</v>
@@ -1919,48 +2358,49 @@
         <v>2.39</v>
       </c>
       <c r="F5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="43.14"/>
-    <col customWidth="1" min="2" max="6" width="13.43"/>
+    <col min="1" max="1" width="43.1640625" customWidth="1"/>
+    <col min="2" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="7">
         <v>5.16</v>
@@ -1975,10 +2415,10 @@
         <v>1.82</v>
       </c>
       <c r="F2" s="15">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1986,7 +2426,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1995,62 +2435,63 @@
       <c r="F4" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="5" width="13.43"/>
+    <col min="1" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2058,179 +2499,181 @@
       <c r="E4" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.57"/>
-    <col customWidth="1" min="2" max="2" width="16.57"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="B2" s="6">
-        <v>3010000.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>3010000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="B3" s="6">
-        <v>2980000.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>2980000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="B4" s="6">
-        <v>2960000.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>2960000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="B5" s="6">
-        <v>2930000.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>2930000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="B6" s="6">
-        <v>2900000.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>2900000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
-        <v>2022.0</v>
+        <v>2022</v>
       </c>
       <c r="B7" s="6">
-        <v>2870000.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>2870000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
-        <v>2023.0</v>
+        <v>2023</v>
       </c>
       <c r="B8" s="6">
-        <v>2840000.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>2840000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
-        <v>2024.0</v>
+        <v>2024</v>
       </c>
       <c r="B9" s="6">
-        <v>2810000.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>2810000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
-        <v>2025.0</v>
+        <v>2025</v>
       </c>
       <c r="B10" s="6">
-        <v>2780000.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>2780000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
-        <v>2026.0</v>
+        <v>2026</v>
       </c>
       <c r="B11" s="6">
-        <v>2740000.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>2740000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
-        <v>2027.0</v>
+        <v>2027</v>
       </c>
       <c r="B12" s="6">
-        <v>2710000.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>2710000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
-        <v>2028.0</v>
+        <v>2028</v>
       </c>
       <c r="B13" s="6">
-        <v>2670000.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>2670000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
-        <v>2029.0</v>
+        <v>2029</v>
       </c>
       <c r="B14" s="6">
-        <v>2640000.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>2640000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
-        <v>2030.0</v>
+        <v>2030</v>
       </c>
       <c r="B15" s="6">
-        <v>2600000.0</v>
+        <v>2600000</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="37.86"/>
-    <col customWidth="1" min="2" max="2" width="20.0"/>
-    <col customWidth="1" min="3" max="3" width="20.57"/>
-    <col customWidth="1" min="4" max="4" width="20.14"/>
+    <col min="1" max="1" width="37.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="B2" s="16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
         <v>0.85</v>
@@ -2242,9 +2685,9 @@
       <c r="F2" s="17"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="2">
         <v>0.97</v>
@@ -2259,12 +2702,12 @@
       <c r="F3" s="17"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2">
-        <v>0.209</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="C4" s="2">
         <v>0.85</v>
@@ -2276,12 +2719,12 @@
       <c r="F4" s="17"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="2">
-        <v>0.209</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="C5" s="2">
         <v>0.85</v>
@@ -2293,9 +2736,9 @@
       <c r="F5" s="17"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="2">
         <v>0.61</v>
@@ -2310,29 +2753,29 @@
       <c r="F6" s="17"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2">
         <v>0.85</v>
       </c>
       <c r="D7" s="2">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="17"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2">
         <v>0.85</v>
@@ -2344,449 +2787,456 @@
       <c r="F8" s="17"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22">
+    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23">
+    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24">
+    <row r="24" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25">
+    <row r="25" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26">
+    <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27">
+    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="37.71"/>
-    <col customWidth="1" min="2" max="6" width="13.57"/>
-    <col customWidth="1" min="7" max="7" width="17.29"/>
-    <col customWidth="1" min="8" max="8" width="9.29"/>
-    <col customWidth="1" min="9" max="9" width="19.57"/>
-    <col customWidth="1" min="10" max="10" width="11.29"/>
+    <col min="1" max="1" width="37.6640625" customWidth="1"/>
+    <col min="2" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19.5" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E2" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="23">
+        <f>demographics!$B$6</f>
+        <v>0.4</v>
+      </c>
+      <c r="E5" s="23">
+        <f>demographics!$B$6</f>
+        <v>0.4</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="5" t="str">
-        <f>demographics!$B$5</f>
-        <v>0.4365</v>
-      </c>
-      <c r="E5" s="5" t="str">
-        <f>demographics!$B$5</f>
-        <v>0.4365</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="23">
+        <f>demographics!$B$6</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="10" t="s">
-        <v>72</v>
-      </c>
       <c r="B8" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C8" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D8" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E8" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G8" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22">
+    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23">
+    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24">
+    <row r="24" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25">
+    <row r="25" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26">
+    <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27">
+    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="30.14"/>
+    <col min="1" max="1" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
         <v>74</v>
-      </c>
-      <c r="C1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" t="s">
-        <v>75</v>
       </c>
       <c r="C2" s="18">
         <v>0.31</v>
@@ -2795,38 +3245,37 @@
         <v>0.31</v>
       </c>
       <c r="E2" s="18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2" s="18">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="18" t="str">
-        <f>demographics!$B$5</f>
-        <v>0.44</v>
-      </c>
-      <c r="D3" s="18" t="str">
-        <f>demographics!$B$5</f>
-        <v>0.44</v>
-      </c>
-      <c r="E3" s="18" t="str">
-        <f>demographics!$B$5</f>
-        <v>0.44</v>
+        <v>75</v>
+      </c>
+      <c r="C3" s="18">
+        <f>demographics!$B$5 * 'Interventions target population'!$G$7</f>
+        <v>0.22799999999999998</v>
+      </c>
+      <c r="D3" s="18">
+        <f>demographics!$B$5 * 'Interventions target population'!$G$7</f>
+        <v>0.22799999999999998</v>
+      </c>
+      <c r="E3" s="18">
+        <v>0</v>
       </c>
       <c r="F3" s="18">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="18">
         <v>0.09</v>
@@ -2835,82 +3284,83 @@
         <v>0.09</v>
       </c>
       <c r="E4" s="18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4" s="18">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="18">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="18">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="18">
-        <v>1.0</v>
+        <v>0</v>
       </c>
       <c r="F5" s="18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.71"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2" s="19">
         <v>0.253</v>
@@ -2919,19 +3369,19 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3" s="19">
         <v>0.253</v>
@@ -2940,123 +3390,124 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="F4" s="20">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="G4" s="20">
+        <v>0.41599999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.416</v>
-      </c>
-      <c r="F4" s="20">
-        <v>0.416</v>
-      </c>
-      <c r="G4" s="20">
-        <v>0.416</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.29"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2">
         <v>0.5</v>
@@ -3065,19 +3516,19 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
         <v>0.51</v>
@@ -3086,18 +3537,18 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <v>0.3</v>
@@ -3109,100 +3560,101 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.0"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2">
         <v>0.65</v>
@@ -3211,19 +3663,19 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
         <v>0.52</v>
@@ -3232,18 +3684,18 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <v>0.62</v>
@@ -3255,71 +3707,72 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>23.3</v>
       </c>
@@ -3331,224 +3784,226 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="B2" s="8">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="8">
-        <v>0.007</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
+      <c r="B3" s="8">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="8">
-        <v>0.199</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
+      <c r="B4" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="8">
-        <v>0.059</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
+      <c r="B5" s="8">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="8">
-        <v>0.229</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
+      <c r="B6" s="8">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="8">
-        <v>0.297</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
+      <c r="B7" s="8">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>22</v>
-      </c>
-      <c r="B7" s="8">
-        <v>0.006</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>23</v>
       </c>
       <c r="B8" s="8">
         <v>0.127</v>
       </c>
       <c r="C8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="8">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="8">
-        <v>0.076</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
+      <c r="B10" s="8">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.14810000000000001</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.14810000000000001</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.14810000000000001</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.14810000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="C10" s="8">
-        <v>0.1481</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0.1481</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0.1481</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0.1481</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
       <c r="B11" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C11" s="8">
         <v>0.2883</v>
@@ -3563,32 +4018,32 @@
         <v>0.2883</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D12" s="8">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E12" s="8">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F12" s="8">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="C12" s="8">
-        <v>0.041</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0.041</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0.041</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.041</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
       <c r="B13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C13" s="8">
         <v>0.05</v>
@@ -3603,32 +4058,32 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D14" s="8">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E14" s="8">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F14" s="8">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C14" s="8">
-        <v>0.006</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0.006</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0.006</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
       <c r="B15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C15" s="8">
         <v>0.01</v>
@@ -3643,52 +4098,52 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="E16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="F16" s="8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.14510000000000001</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.14510000000000001</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.14510000000000001</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0.14510000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C17" s="8">
-        <v>0.1451</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0.1451</v>
-      </c>
-      <c r="E17" s="8">
-        <v>0.1451</v>
-      </c>
-      <c r="F17" s="8">
-        <v>0.1451</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
       <c r="B18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C18" s="8">
         <v>0.3115</v>
@@ -3704,46 +4159,47 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="C2" s="9">
         <v>60.67</v>
@@ -3752,18 +4208,18 @@
         <v>60.67</v>
       </c>
       <c r="E2" s="9">
-        <v>47.206</v>
+        <v>47.206000000000003</v>
       </c>
       <c r="F2" s="9">
-        <v>22.921</v>
+        <v>22.920999999999999</v>
       </c>
       <c r="G2" s="9">
-        <v>23.661</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>23.661000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="9">
         <v>21.637</v>
@@ -3772,18 +4228,18 @@
         <v>21.637</v>
       </c>
       <c r="E3" s="9">
-        <v>30.252</v>
+        <v>30.251999999999999</v>
       </c>
       <c r="F3" s="9">
-        <v>27.735</v>
+        <v>27.734999999999999</v>
       </c>
       <c r="G3" s="9">
-        <v>31.069</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>31.068999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="9">
         <v>13.337</v>
@@ -3795,38 +4251,38 @@
         <v>14.065</v>
       </c>
       <c r="F4" s="9">
-        <v>30.803</v>
+        <v>30.803000000000001</v>
       </c>
       <c r="G4" s="9">
-        <v>28.443</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>28.443000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="9">
-        <v>4.356</v>
+        <v>4.3559999999999999</v>
       </c>
       <c r="D5" s="9">
-        <v>4.356</v>
+        <v>4.3559999999999999</v>
       </c>
       <c r="E5" s="9">
-        <v>8.477</v>
+        <v>8.4770000000000003</v>
       </c>
       <c r="F5" s="9">
         <v>18.541</v>
       </c>
       <c r="G5" s="9">
-        <v>16.827</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>16.827000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="9">
         <v>60.66</v>
@@ -3844,9 +4300,9 @@
         <v>23.66</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="9">
         <v>21.64</v>
@@ -3864,9 +4320,9 @@
         <v>31.07</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="9">
         <v>13.34</v>
@@ -3884,15 +4340,15 @@
         <v>28.44</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="9">
-        <v>4.36</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="D9" s="9">
-        <v>4.36</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="E9" s="9">
         <v>8.48</v>
@@ -3901,35 +4357,35 @@
         <v>18.54</v>
       </c>
       <c r="G9" s="9">
-        <v>16.83</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>16.829999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="C10" s="9">
         <v>87.6</v>
       </c>
       <c r="D10" s="9">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="E10" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F10" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G10" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="9">
         <v>3.5</v>
@@ -3938,18 +4394,18 @@
         <v>13.9</v>
       </c>
       <c r="E11" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F11" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G11" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="9">
         <v>8.9</v>
@@ -3964,18 +4420,18 @@
         <v>93.1</v>
       </c>
       <c r="G12" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D13" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="9">
         <v>3.6</v>
@@ -3984,36 +4440,38 @@
         <v>6.9</v>
       </c>
       <c r="G13" s="10">
-        <v>100.0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
-        <v>0.0311</v>
+        <v>3.1099999999999999E-2</v>
       </c>
       <c r="B2" s="2">
         <v>0.1085</v>
@@ -4023,141 +4481,143 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="11">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="C2" s="11">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="D2" s="11">
         <v>3.71</v>
       </c>
       <c r="E2" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F2" s="11">
         <v>1.92</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D2">
-        <v>1.0</v>
-      </c>
-      <c r="E2">
-        <v>1.0</v>
-      </c>
-      <c r="F2">
-        <v>1.0</v>
-      </c>
-      <c r="G2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>1.67</v>
@@ -4172,12 +4632,12 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>2.38</v>
@@ -4192,12 +4652,12 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>6.33</v>
@@ -4212,35 +4672,35 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D6">
-        <v>1.0</v>
-      </c>
-      <c r="E6">
-        <v>1.0</v>
-      </c>
-      <c r="F6">
-        <v>1.0</v>
-      </c>
-      <c r="G6">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>1.55</v>
@@ -4255,32 +4715,32 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="E8">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="F8">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="G8">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D8">
-        <v>2.18</v>
-      </c>
-      <c r="E8">
-        <v>2.18</v>
-      </c>
-      <c r="F8">
-        <v>2.18</v>
-      </c>
-      <c r="G8">
-        <v>2.18</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>6.39</v>
@@ -4295,55 +4755,55 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D10">
-        <v>1.0</v>
-      </c>
-      <c r="E10">
-        <v>1.0</v>
-      </c>
-      <c r="F10">
-        <v>1.0</v>
-      </c>
-      <c r="G10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D11">
-        <v>1.0</v>
-      </c>
-      <c r="E11">
-        <v>1.0</v>
-      </c>
-      <c r="F11">
-        <v>1.0</v>
-      </c>
-      <c r="G11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>2.79</v>
@@ -4358,12 +4818,12 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>6.01</v>
@@ -4378,138 +4838,138 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D14">
-        <v>1.0</v>
-      </c>
-      <c r="E14">
-        <v>1.0</v>
-      </c>
-      <c r="F14">
-        <v>1.0</v>
-      </c>
-      <c r="G14">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D15">
-        <v>1.0</v>
-      </c>
-      <c r="E15">
-        <v>1.0</v>
-      </c>
-      <c r="F15">
-        <v>1.0</v>
-      </c>
-      <c r="G15">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D16">
-        <v>1.0</v>
-      </c>
-      <c r="E16">
-        <v>1.0</v>
-      </c>
-      <c r="F16">
-        <v>1.0</v>
-      </c>
-      <c r="G16">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D18">
-        <v>1.0</v>
-      </c>
-      <c r="E18">
-        <v>1.0</v>
-      </c>
-      <c r="F18">
-        <v>1.0</v>
-      </c>
-      <c r="G18">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D19">
-        <v>1.0</v>
-      </c>
-      <c r="E19">
-        <v>1.0</v>
-      </c>
-      <c r="F19">
-        <v>1.0</v>
-      </c>
-      <c r="G19">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C20" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>1.86</v>
@@ -4524,12 +4984,12 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>3.01</v>
@@ -4545,69 +5005,70 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D2">
-        <v>1.0</v>
-      </c>
-      <c r="E2">
-        <v>1.0</v>
-      </c>
-      <c r="F2">
-        <v>1.0</v>
-      </c>
-      <c r="G2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>1.6</v>
@@ -4622,12 +5083,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>3.41</v>
@@ -4642,12 +5103,12 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>12.33</v>
@@ -4662,35 +5123,35 @@
         <v>12.33</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D6">
-        <v>1.0</v>
-      </c>
-      <c r="E6">
-        <v>1.0</v>
-      </c>
-      <c r="F6">
-        <v>1.0</v>
-      </c>
-      <c r="G6">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>1.92</v>
@@ -4705,12 +5166,12 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>4.66</v>
@@ -4725,12 +5186,12 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>9.68</v>
@@ -4745,55 +5206,55 @@
         <v>9.68</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D10">
-        <v>1.0</v>
-      </c>
-      <c r="E10">
-        <v>1.0</v>
-      </c>
-      <c r="F10">
-        <v>1.0</v>
-      </c>
-      <c r="G10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D11">
-        <v>1.0</v>
-      </c>
-      <c r="E11">
-        <v>1.0</v>
-      </c>
-      <c r="F11">
-        <v>1.0</v>
-      </c>
-      <c r="G11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>2.58</v>
@@ -4808,138 +5269,138 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>9.63</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="E13">
-        <v>9.63</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="F13">
-        <v>9.63</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="G13">
-        <v>9.63</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>9.6300000000000008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D14">
-        <v>1.0</v>
-      </c>
-      <c r="E14">
-        <v>1.0</v>
-      </c>
-      <c r="F14">
-        <v>1.0</v>
-      </c>
-      <c r="G14">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D15">
-        <v>1.0</v>
-      </c>
-      <c r="E15">
-        <v>1.0</v>
-      </c>
-      <c r="F15">
-        <v>1.0</v>
-      </c>
-      <c r="G15">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D16">
-        <v>1.0</v>
-      </c>
-      <c r="E16">
-        <v>1.0</v>
-      </c>
-      <c r="F16">
-        <v>1.0</v>
-      </c>
-      <c r="G16">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D18">
-        <v>1.0</v>
-      </c>
-      <c r="E18">
-        <v>1.0</v>
-      </c>
-      <c r="F18">
-        <v>1.0</v>
-      </c>
-      <c r="G18">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C19" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>1.65</v>
@@ -4954,12 +5415,12 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>2.73</v>
@@ -4974,12 +5435,12 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>11.21</v>
@@ -4995,6 +5456,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/input_spreadsheets/Bangladesh/2016Aug02/validation/Input_Bangladesh_2016_1604_LiST.xlsx
+++ b/input_spreadsheets/Bangladesh/2016Aug02/validation/Input_Bangladesh_2016_1604_LiST.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-4920" yWindow="-21040" windowWidth="32160" windowHeight="19240" tabRatio="500" firstSheet="14" activeTab="21"/>
+    <workbookView xWindow="-4920" yWindow="-21040" windowWidth="32160" windowHeight="19240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="1" r:id="rId1"/>
@@ -417,9 +417,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -497,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -544,6 +545,7 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,6 +613,159 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 1" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 1" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -632,6 +787,159 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2049" name="Rectangle 1" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 1" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 1" hidden="1"/>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -933,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -944,7 +1252,7 @@
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -952,7 +1260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -960,7 +1268,7 @@
         <v>14790000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -968,7 +1276,7 @@
         <v>3030000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -976,32 +1284,41 @@
         <v>3583822</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B6" s="21">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.4365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B7" s="21">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="22"/>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="21"/>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2398,7 +2715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>63</v>
       </c>
@@ -2467,7 +2784,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>42</v>
       </c>
@@ -3013,11 +3330,11 @@
       </c>
       <c r="D5" s="23">
         <f>demographics!$B$6</f>
-        <v>0.4</v>
+        <v>0.4365</v>
       </c>
       <c r="E5" s="23">
         <f>demographics!$B$6</f>
-        <v>0.4</v>
+        <v>0.4365</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
@@ -3070,7 +3387,7 @@
       </c>
       <c r="G7" s="23">
         <f>demographics!$B$6</f>
-        <v>0.4</v>
+        <v>0.4365</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3202,7 +3519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -3257,11 +3574,11 @@
       </c>
       <c r="C3" s="18">
         <f>demographics!$B$5 * 'Interventions target population'!$G$7</f>
-        <v>0.22799999999999998</v>
+        <v>0.4365</v>
       </c>
       <c r="D3" s="18">
         <f>demographics!$B$5 * 'Interventions target population'!$G$7</f>
-        <v>0.22799999999999998</v>
+        <v>0.4365</v>
       </c>
       <c r="E3" s="18">
         <v>0</v>
@@ -3772,7 +4089,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>23.3</v>
       </c>
